--- a/group-reports/tables/shahriar-1-2-tests-results.xlsx
+++ b/group-reports/tables/shahriar-1-2-tests-results.xlsx
@@ -722,12 +722,12 @@
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>2542</t>
+          <t>2330.9k</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
@@ -844,12 +844,12 @@
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>5288.5k</t>
+          <t>7324</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>2436</t>
+          <t>1609.6k</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>2949</t>
+          <t>2624.3k</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>5614.5k</t>
+          <t>8941</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>6</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>5623.4k</t>
+          <t>6499</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>12654k</t>
+          <t>14574</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>3340</t>
+          <t>3126.8k</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>1204.6k</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>7421.7k</t>
+          <t>7280</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
@@ -2064,12 +2064,12 @@
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>3613</t>
+          <t>2811</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>5503.2k</t>
+          <t>10922</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>1480</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>2644</t>
+          <t>1420.8k</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
@@ -2430,12 +2430,12 @@
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>3884.8k</t>
+          <t>4202.3k</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
@@ -2552,12 +2552,12 @@
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>2907</t>
+          <t>2015.4k</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
@@ -2674,12 +2674,12 @@
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>3516.5k</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>2733</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
@@ -2918,12 +2918,12 @@
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>1869</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>5528.2k</t>
+          <t>7415.9k</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
@@ -3040,12 +3040,12 @@
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>2527</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
@@ -3162,12 +3162,12 @@
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>2445</t>
+          <t>2706.6k</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">

--- a/group-reports/tables/shahriar-1-2-tests-results.xlsx
+++ b/group-reports/tables/shahriar-1-2-tests-results.xlsx
@@ -732,7 +732,7 @@
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>1266.26</t>
+          <t>30491.43</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>920981.53</t>
+          <t>1140.99</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>1271.57</t>
+          <t>17412.80</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>1251.44</t>
+          <t>65114.86</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>674565.98</t>
+          <t>2003.07</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>716647.92</t>
+          <t>1892.25</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>1438889.67</t>
+          <t>1386.30</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="Q10" s="1" t="inlineStr">
         <is>
-          <t>1264.56</t>
+          <t>34680.21</t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>1276.04</t>
+          <t>7259.67</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="Q12" s="1" t="inlineStr">
         <is>
-          <t>1230073.08</t>
+          <t>142.84</t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t>1213.73</t>
+          <t>155.15</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>1266.64</t>
+          <t>28.67</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>688017.37</t>
+          <t>1972.19</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="Q16" s="1" t="inlineStr">
         <is>
-          <t>1274.94</t>
+          <t>9977.52</t>
         </is>
       </c>
       <c r="R16" s="1" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="Q17" s="1" t="inlineStr">
         <is>
-          <t>1179691.54</t>
+          <t>236328.47</t>
         </is>
       </c>
       <c r="R17" s="1" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="Q18" s="1" t="inlineStr">
         <is>
-          <t>1244.99</t>
+          <t>80412.84</t>
         </is>
       </c>
       <c r="R18" s="1" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="Q19" s="1" t="inlineStr">
         <is>
-          <t>1270.10</t>
+          <t>20959.92</t>
         </is>
       </c>
       <c r="R19" s="1" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="Q20" s="1" t="inlineStr">
         <is>
-          <t>1270.19</t>
+          <t>20.55</t>
         </is>
       </c>
       <c r="R20" s="1" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="Q21" s="1" t="inlineStr">
         <is>
-          <t>1012049.52</t>
+          <t>884699.58</t>
         </is>
       </c>
       <c r="R21" s="1" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="Q22" s="1" t="inlineStr">
         <is>
-          <t>1274.43</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="R22" s="1" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="Q23" s="1" t="inlineStr">
         <is>
-          <t>1236.71</t>
+          <t>99251.99</t>
         </is>
       </c>
       <c r="R23" s="1" t="inlineStr">
